--- a/src/analysis_examples/circadb/results_lomb/cosinor_10400304_egln3_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10400304_egln3_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.22981212952591956, 0.3579224591572382]</t>
+          <t>[0.23142238832726844, 0.3563122003558893]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.385134033668692e-09</v>
+        <v>2.822258871049144e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>4.385134033668692e-09</v>
+        <v>2.822258871049144e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5912106295043857</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.7924738225271559, -0.38994743648161556]</t>
+          <t>[-0.8050527720910781, -0.3773684869176934]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>4.62242310894645e-06</v>
+        <v>1.045909169605785e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>4.62242310894645e-06</v>
+        <v>1.045909169605785e-05</v>
       </c>
       <c r="S2" t="n">
         <v>0.5436001218459412</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5107736740083209, 0.5764265696835615]</t>
+          <t>[0.5107552743318747, 0.5764449693600077]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.326006006006079</v>
       </c>
       <c r="X2" t="n">
-        <v>1.534174174174221</v>
+        <v>1.484684684684733</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.117837837837937</v>
+        <v>3.167327327327424</v>
       </c>
     </row>
   </sheetData>
